--- a/data/trans_orig/P33b_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D85926-118B-47AD-AE3D-482795777F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3808E041-9AEF-4263-8EBF-B1F9FE211B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6FE1D717-2971-447C-9B20-66F2443EDD09}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7D019D5-F372-4725-ADF8-1270C03B11D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>28,17%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
   </si>
   <si>
     <t>38,82%</t>
   </si>
   <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>71,83%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
   </si>
   <si>
     <t>61,18%</t>
   </si>
   <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,160 +137,166 @@
     <t>13,71%</t>
   </si>
   <si>
-    <t>12,23%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>17,24%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>85,73%</t>
   </si>
   <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
     <t>78,53%</t>
   </si>
   <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
   </si>
   <si>
     <t>81,19%</t>
   </si>
   <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA5C620-05C6-41C8-BDA4-5FD599CAF0D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73260D34-8FC2-4D6A-8D24-EC6BE54BDBE2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1014,13 +1020,13 @@
         <v>684034</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,28 +1041,28 @@
         <v>1864622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2336</v>
       </c>
       <c r="I8" s="7">
-        <v>1861809</v>
+        <v>1861810</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4015</v>
@@ -1065,13 +1071,13 @@
         <v>3726432</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1098,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1139,13 +1145,13 @@
         <v>85286</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -1154,13 +1160,13 @@
         <v>103836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>237</v>
@@ -1169,13 +1175,13 @@
         <v>189122</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1196,13 @@
         <v>586781</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>851</v>
@@ -1205,13 +1211,13 @@
         <v>610050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1447</v>
@@ -1220,13 +1226,13 @@
         <v>1196831</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1300,13 @@
         <v>534164</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1278</v>
@@ -1309,13 +1315,13 @@
         <v>814999</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1872</v>
@@ -1324,13 +1330,13 @@
         <v>1349163</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,16 +1348,16 @@
         <v>2768</v>
       </c>
       <c r="D14" s="7">
-        <v>2840481</v>
+        <v>2840482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4073</v>
@@ -1360,13 +1366,13 @@
         <v>2981599</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6841</v>
@@ -1375,13 +1381,13 @@
         <v>5822080</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1399,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3374645</v>
+        <v>3374646</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3808E041-9AEF-4263-8EBF-B1F9FE211B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C20252-4301-46F7-84EE-0EB608228D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7D019D5-F372-4725-ADF8-1270C03B11D1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7332CCFA-6FE8-4A45-BF94-E6A490BCD7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73260D34-8FC2-4D6A-8D24-EC6BE54BDBE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DF97E7-5F9A-48C8-A375-9E0A2F998D82}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C20252-4301-46F7-84EE-0EB608228D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{073B50A9-ECDA-4397-82F4-E9DA25726BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7332CCFA-6FE8-4A45-BF94-E6A490BCD7F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88011D5F-DEFD-40BA-9FC7-06E5C1A3FB67}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>28,17%</t>
   </si>
   <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>38,82%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>71,83%</t>
   </si>
   <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>61,18%</t>
   </si>
   <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,22 +137,19 @@
     <t>13,71%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>13,98%</t>
@@ -164,22 +161,19 @@
     <t>86,29%</t>
   </si>
   <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>82,76%</t>
   </si>
   <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>83,31%</t>
@@ -194,109 +188,109 @@
     <t>12,69%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>84,17%</t>
   </si>
   <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>78,53%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>81,19%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DF97E7-5F9A-48C8-A375-9E0A2F998D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164D244B-9E50-4BAB-9C09-4501B9F78ADD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1020,13 +1014,13 @@
         <v>684034</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1041,28 +1035,28 @@
         <v>1864622</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2336</v>
       </c>
       <c r="I8" s="7">
-        <v>1861810</v>
+        <v>1861809</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4015</v>
@@ -1071,13 +1065,13 @@
         <v>3726432</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1104,7 +1098,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1133,7 +1127,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1145,13 +1139,13 @@
         <v>85286</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -1160,13 +1154,13 @@
         <v>103836</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>237</v>
@@ -1175,13 +1169,13 @@
         <v>189122</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1190,13 @@
         <v>586781</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>851</v>
@@ -1211,13 +1205,13 @@
         <v>610050</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1447</v>
@@ -1226,13 +1220,13 @@
         <v>1196831</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,13 +1294,13 @@
         <v>534164</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1278</v>
@@ -1315,13 +1309,13 @@
         <v>814999</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1872</v>
@@ -1330,13 +1324,13 @@
         <v>1349163</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,16 +1342,16 @@
         <v>2768</v>
       </c>
       <c r="D14" s="7">
-        <v>2840482</v>
+        <v>2840481</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4073</v>
@@ -1366,13 +1360,13 @@
         <v>2981599</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6841</v>
@@ -1381,13 +1375,13 @@
         <v>5822080</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,7 +1393,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3374646</v>
+        <v>3374645</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{073B50A9-ECDA-4397-82F4-E9DA25726BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8723A5-1519-4F25-AA0F-051A7CC00772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88011D5F-DEFD-40BA-9FC7-06E5C1A3FB67}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D741C67A-F292-4A1F-B01E-2999ADFD08C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>13,71%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164D244B-9E50-4BAB-9C09-4501B9F78ADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299EE2B8-4ECC-41BA-91AF-7FE7B5966F96}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +832,7 @@
         <v>198</v>
       </c>
       <c r="D4" s="7">
-        <v>152555</v>
+        <v>139748</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +847,7 @@
         <v>540</v>
       </c>
       <c r="I4" s="7">
-        <v>323453</v>
+        <v>284430</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +862,7 @@
         <v>738</v>
       </c>
       <c r="N4" s="7">
-        <v>476007</v>
+        <v>424178</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +883,7 @@
         <v>493</v>
       </c>
       <c r="D5" s="7">
-        <v>389079</v>
+        <v>375190</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +898,7 @@
         <v>886</v>
       </c>
       <c r="I5" s="7">
-        <v>509738</v>
+        <v>468738</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +913,7 @@
         <v>1379</v>
       </c>
       <c r="N5" s="7">
-        <v>898817</v>
+        <v>843929</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +934,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +949,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +964,7 @@
         <v>2117</v>
       </c>
       <c r="N6" s="7">
-        <v>1374824</v>
+        <v>1268107</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,7 +987,7 @@
         <v>312</v>
       </c>
       <c r="D7" s="7">
-        <v>296323</v>
+        <v>278471</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -996,7 +1002,7 @@
         <v>585</v>
       </c>
       <c r="I7" s="7">
-        <v>387711</v>
+        <v>353280</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1011,16 +1017,16 @@
         <v>897</v>
       </c>
       <c r="N7" s="7">
-        <v>684034</v>
+        <v>631751</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1032,46 +1038,46 @@
         <v>1679</v>
       </c>
       <c r="D8" s="7">
-        <v>1864622</v>
+        <v>2010826</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2336</v>
       </c>
       <c r="I8" s="7">
-        <v>1861809</v>
+        <v>1884543</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4015</v>
       </c>
       <c r="N8" s="7">
-        <v>3726432</v>
+        <v>3895370</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1083,7 +1089,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2160945</v>
+        <v>2289297</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1119,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410466</v>
+        <v>4527121</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1136,46 +1142,46 @@
         <v>84</v>
       </c>
       <c r="D10" s="7">
-        <v>85286</v>
+        <v>81951</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
       </c>
       <c r="I10" s="7">
-        <v>103836</v>
+        <v>94845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>237</v>
       </c>
       <c r="N10" s="7">
-        <v>189122</v>
+        <v>176795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1187,46 +1193,46 @@
         <v>596</v>
       </c>
       <c r="D11" s="7">
-        <v>586781</v>
+        <v>563703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>851</v>
       </c>
       <c r="I11" s="7">
-        <v>610050</v>
+        <v>565618</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1447</v>
       </c>
       <c r="N11" s="7">
-        <v>1196831</v>
+        <v>1129322</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,7 +1244,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>672067</v>
+        <v>645654</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1259,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1274,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1385953</v>
+        <v>1306117</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,46 +1297,46 @@
         <v>594</v>
       </c>
       <c r="D13" s="7">
-        <v>534164</v>
+        <v>500169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1278</v>
       </c>
       <c r="I13" s="7">
-        <v>814999</v>
+        <v>732555</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1872</v>
       </c>
       <c r="N13" s="7">
-        <v>1349163</v>
+        <v>1232724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,46 +1348,46 @@
         <v>2768</v>
       </c>
       <c r="D14" s="7">
-        <v>2840481</v>
+        <v>2949721</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4073</v>
       </c>
       <c r="I14" s="7">
-        <v>2981599</v>
+        <v>2918900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6841</v>
       </c>
       <c r="N14" s="7">
-        <v>5822080</v>
+        <v>5868621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1399,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3374645</v>
+        <v>3449890</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1414,7 @@
         <v>5351</v>
       </c>
       <c r="I15" s="7">
-        <v>3796598</v>
+        <v>3651455</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1429,7 @@
         <v>8713</v>
       </c>
       <c r="N15" s="7">
-        <v>7171243</v>
+        <v>7101345</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
